--- a/Conception/Gestion de Projet/BurndownChart.xlsx
+++ b/Conception/Gestion de Projet/BurndownChart.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -562,6 +562,24 @@
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1934,8 +1952,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P34" sqref="P34"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2071,11 +2089,11 @@
         <v>20</v>
       </c>
       <c r="E5" s="1">
-        <f t="shared" ref="E5:E8" si="0">E4-C5</f>
+        <f t="shared" ref="E5:E14" si="0">E4-C5</f>
         <v>21</v>
       </c>
       <c r="F5" s="1">
-        <f t="shared" ref="F5:F8" si="1">E4-E5</f>
+        <f t="shared" ref="F5:F14" si="1">E4-E5</f>
         <v>4</v>
       </c>
       <c r="R5" s="3">
@@ -2203,13 +2221,21 @@
       <c r="B9" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="1"/>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
       <c r="D9" s="1">
         <f>D8-B9</f>
         <v>7</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
       <c r="R9" s="3"/>
       <c r="S9" s="4" t="s">
         <v>13</v>
@@ -2224,13 +2250,21 @@
       <c r="B10" s="1">
         <v>1</v>
       </c>
-      <c r="C10" s="1"/>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
       <c r="D10" s="1">
         <f t="shared" ref="D10:D14" si="2">D9-B10</f>
         <v>6</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R10" s="6">
         <v>7</v>
       </c>
@@ -2251,13 +2285,21 @@
       <c r="B11" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="1"/>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
       <c r="D11" s="1">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
       <c r="R11" s="3">
         <v>8</v>
       </c>
@@ -2278,13 +2320,21 @@
       <c r="B12" s="1">
         <v>1</v>
       </c>
-      <c r="C12" s="1"/>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
       <c r="D12" s="1">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
       <c r="R12" s="3">
         <v>9</v>
       </c>
@@ -2305,13 +2355,21 @@
       <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C13" s="1"/>
+      <c r="C13" s="1">
+        <v>2</v>
+      </c>
       <c r="D13" s="1">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
       <c r="R13" s="3">
         <v>10</v>
       </c>
@@ -2332,13 +2390,21 @@
       <c r="B14" s="1">
         <v>1</v>
       </c>
-      <c r="C14" s="1"/>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
       <c r="D14" s="1">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
       <c r="R14" s="3">
         <v>11</v>
       </c>
